--- a/Bus_route/res/1번노선.xlsx
+++ b/Bus_route/res/1번노선.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
   <si>
     <t>NAME</t>
   </si>
@@ -52,24 +52,69 @@
     <t>모라주공아파트</t>
   </si>
   <si>
+    <t>엄궁사거리</t>
+  </si>
+  <si>
+    <t>남구청</t>
+  </si>
+  <si>
+    <t>서면역.서면지하상가</t>
+  </si>
+  <si>
+    <t>남구청후문</t>
+  </si>
+  <si>
+    <t>부암역.당감입구</t>
+  </si>
+  <si>
+    <t>학장교</t>
+  </si>
+  <si>
+    <t>올림픽교차로</t>
+  </si>
+  <si>
     <t>해운대구청</t>
   </si>
   <si>
+    <t>엄궁삼거리</t>
+  </si>
+  <si>
+    <t>서부산공업고등학교</t>
+  </si>
+  <si>
     <t>사상종합복지관</t>
   </si>
   <si>
     <t>북부산세무서.감전역</t>
   </si>
   <si>
-    <t>남구청</t>
-  </si>
-  <si>
-    <t>남구청후문</t>
+    <t>범내골역.상공회의소</t>
+  </si>
+  <si>
+    <t>중동역</t>
   </si>
   <si>
     <t>개금역</t>
   </si>
   <si>
+    <t>럭키아파트.주례역</t>
+  </si>
+  <si>
+    <t>부전시장입구</t>
+  </si>
+  <si>
+    <t>부전역</t>
+  </si>
+  <si>
+    <t>대연역.부산은행</t>
+  </si>
+  <si>
+    <t>엄궁초등학교</t>
+  </si>
+  <si>
+    <t>남구청.못골역</t>
+  </si>
+  <si>
     <t>부산구치소</t>
   </si>
   <si>
@@ -79,211 +124,286 @@
     <t>부암3동주민센터</t>
   </si>
   <si>
+    <t>개금삼거리</t>
+  </si>
+  <si>
     <t>해운대시장</t>
   </si>
   <si>
     <t>주감중학교</t>
   </si>
   <si>
+    <t>송상현광장</t>
+  </si>
+  <si>
+    <t>해운대도시철도역</t>
+  </si>
+  <si>
     <t>부산북부고용노동지청</t>
   </si>
   <si>
+    <t>자유아파트</t>
+  </si>
+  <si>
+    <t>여성문화회관</t>
+  </si>
+  <si>
+    <t>모라1동행정복지센터</t>
+  </si>
+  <si>
     <t>사상우체국</t>
   </si>
   <si>
-    <t>자유아파트</t>
-  </si>
-  <si>
-    <t>여성문화회관</t>
-  </si>
-  <si>
-    <t>모라1동행정복지센터</t>
+    <t>롯데호텔백화점.서면역</t>
+  </si>
+  <si>
+    <t>선암사입구</t>
+  </si>
+  <si>
+    <t>동양아파트</t>
+  </si>
+  <si>
+    <t>범내골역</t>
+  </si>
+  <si>
+    <t>감만시장</t>
   </si>
   <si>
     <t>유엔공원.부산문화회관</t>
   </si>
   <si>
-    <t>감만시장</t>
-  </si>
-  <si>
     <t>당감4동</t>
   </si>
   <si>
-    <t>해운대도시철도역</t>
+    <t>부암역</t>
   </si>
   <si>
     <t>좌3동행정복지센터</t>
   </si>
   <si>
-    <t>엄궁초등학교</t>
+    <t>양정역</t>
+  </si>
+  <si>
+    <t>서면교차로</t>
+  </si>
+  <si>
+    <t>서면시장</t>
   </si>
   <si>
     <t>모라새마을금고</t>
   </si>
   <si>
+    <t>양정대원칸타빌</t>
+  </si>
+  <si>
+    <t>지오플레이스</t>
+  </si>
+  <si>
+    <t>동원아파트</t>
+  </si>
+  <si>
+    <t>냉정고개</t>
+  </si>
+  <si>
+    <t>주례사거리</t>
+  </si>
+  <si>
     <t>청소년지원센터.모덕역</t>
   </si>
   <si>
-    <t>동원아파트</t>
-  </si>
-  <si>
-    <t>부전역</t>
+    <t>부경대용당캠퍼스</t>
+  </si>
+  <si>
+    <t>동천초등학교</t>
+  </si>
+  <si>
+    <t>개금3동주민센터</t>
   </si>
   <si>
     <t>개성고등학교입구</t>
   </si>
   <si>
-    <t>개금3동주민센터</t>
-  </si>
-  <si>
-    <t>부경대용당캠퍼스</t>
-  </si>
-  <si>
-    <t>동천초등학교</t>
-  </si>
-  <si>
-    <t>부암역</t>
-  </si>
-  <si>
-    <t>범내골역.상공회의소</t>
+    <t>동해선부전역</t>
+  </si>
+  <si>
+    <t>동부아파트</t>
   </si>
   <si>
     <t>모라주공3.4단지</t>
   </si>
   <si>
-    <t>동부아파트</t>
-  </si>
-  <si>
-    <t>범내골역</t>
-  </si>
-  <si>
     <t>태을의원</t>
   </si>
   <si>
-    <t>부암역.당감입구</t>
+    <t>신한은행</t>
+  </si>
+  <si>
+    <t>반도보라아파트</t>
+  </si>
+  <si>
+    <t>가야시장.가야역</t>
+  </si>
+  <si>
+    <t>부산글로벌빌리지</t>
+  </si>
+  <si>
+    <t>서면한전</t>
+  </si>
+  <si>
+    <t>부산시설공단</t>
+  </si>
+  <si>
+    <t>덕포시장</t>
   </si>
   <si>
     <t>엄궁동부산은행</t>
   </si>
   <si>
-    <t>덕포시장</t>
-  </si>
-  <si>
     <t>학장교차로</t>
   </si>
   <si>
-    <t>동해선부전역</t>
+    <t>부산진여자중학교</t>
+  </si>
+  <si>
+    <t>한양아파트</t>
   </si>
   <si>
     <t>문현3동행정복지센터</t>
   </si>
   <si>
-    <t>부산진여자중학교</t>
-  </si>
-  <si>
-    <t>송상현광장</t>
-  </si>
-  <si>
-    <t>한양아파트</t>
-  </si>
-  <si>
     <t>초읍초등학교</t>
   </si>
   <si>
+    <t>케스텍코리아</t>
+  </si>
+  <si>
+    <t>부암교차로</t>
+  </si>
+  <si>
+    <t>학장중학교</t>
+  </si>
+  <si>
+    <t>서면부속상가</t>
+  </si>
+  <si>
+    <t>해운대온천사거리</t>
+  </si>
+  <si>
+    <t>부산진초등학교</t>
+  </si>
+  <si>
+    <t>신도중.신도고등학교</t>
+  </si>
+  <si>
     <t>좋은삼선병원</t>
   </si>
   <si>
-    <t>신도중.신도고등학교</t>
-  </si>
-  <si>
-    <t>해운대온천사거리</t>
+    <t>국제금융센터.부산은행역</t>
+  </si>
+  <si>
+    <t>삼락동주민센터</t>
+  </si>
+  <si>
+    <t>신모라입구</t>
   </si>
   <si>
     <t>덕포역.덕포2동행정복지센터</t>
   </si>
   <si>
-    <t>삼락동주민센터</t>
-  </si>
-  <si>
-    <t>신모라입구</t>
+    <t>문현교차로</t>
+  </si>
+  <si>
+    <t>부산진구청</t>
   </si>
   <si>
     <t>시립박물관</t>
   </si>
   <si>
+    <t>석포초등학교</t>
+  </si>
+  <si>
     <t>협성피닉스</t>
   </si>
   <si>
-    <t>부산진구청</t>
-  </si>
-  <si>
-    <t>문현교차로</t>
-  </si>
-  <si>
-    <t>석포초등학교</t>
-  </si>
-  <si>
-    <t>양정역</t>
-  </si>
-  <si>
     <t>화승삼성아파트</t>
   </si>
   <si>
-    <t>서면역.서면지하상가</t>
-  </si>
-  <si>
     <t>감만창의문화촌</t>
   </si>
   <si>
-    <t>개금아파트</t>
+    <t>중앙시장</t>
+  </si>
+  <si>
+    <t>엄궁롯데캐슬</t>
+  </si>
+  <si>
+    <t>LG디스커버리랩</t>
+  </si>
+  <si>
+    <t>NC서면점</t>
+  </si>
+  <si>
+    <t>못골시장</t>
+  </si>
+  <si>
+    <t>경성대.부경대역</t>
+  </si>
+  <si>
+    <t>석포여중</t>
+  </si>
+  <si>
+    <t>한신문화타운</t>
+  </si>
+  <si>
+    <t>모라주공1단지</t>
   </si>
   <si>
     <t>가야1치안센터</t>
   </si>
   <si>
+    <t>신도시시장.아세안문화원</t>
+  </si>
+  <si>
     <t>홈플러스</t>
   </si>
   <si>
-    <t>모라주공1단지</t>
+    <t>감전동주민센터</t>
+  </si>
+  <si>
+    <t>엄궁시장</t>
+  </si>
+  <si>
+    <t>대연SK뷰아파트</t>
+  </si>
+  <si>
+    <t>주감초등학교</t>
   </si>
   <si>
     <t>럭키슈퍼</t>
   </si>
   <si>
-    <t>주감초등학교</t>
-  </si>
-  <si>
-    <t>대연SK뷰아파트</t>
-  </si>
-  <si>
-    <t>감전동주민센터</t>
-  </si>
-  <si>
-    <t>엄궁시장</t>
-  </si>
-  <si>
     <t>우신모라아파트</t>
   </si>
   <si>
+    <t>능인사</t>
+  </si>
+  <si>
     <t>대연역</t>
   </si>
   <si>
-    <t>못골시장</t>
-  </si>
-  <si>
     <t>덕포초.부산도서관</t>
   </si>
   <si>
     <t>사상구</t>
   </si>
   <si>
+    <t>남구</t>
+  </si>
+  <si>
+    <t>부산진구</t>
+  </si>
+  <si>
     <t>해운대구</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>부산진구</t>
   </si>
 </sst>
 </file>
@@ -641,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +813,7 @@
         <v>21150541002</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>35.184566</v>
@@ -731,7 +851,7 @@
         <v>21150541003</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>35.18474352</v>
@@ -766,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>21090531008</v>
+        <v>21150641017</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E4">
-        <v>35.16309075</v>
+        <v>35.13154567</v>
       </c>
       <c r="F4">
-        <v>129.164525</v>
+        <v>128.9726525</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -790,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -804,34 +924,34 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>21150601012</v>
+        <v>21070561030</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E5">
-        <v>35.15582721</v>
+        <v>35.13577335</v>
       </c>
       <c r="F5">
-        <v>128.9947379</v>
+        <v>129.0853608</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -842,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>21150591006</v>
+        <v>50000002623</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>35.1548615</v>
+        <v>35.15594596</v>
       </c>
       <c r="F6">
-        <v>128.9909335</v>
+        <v>129.0590191</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -866,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -880,22 +1000,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>21070561030</v>
+        <v>21070561029</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>35.13577335</v>
+        <v>35.13579486</v>
       </c>
       <c r="F7">
-        <v>129.0853608</v>
+        <v>129.0839071</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -907,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -918,22 +1038,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>21070561029</v>
+        <v>21050641015</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>35.13579486</v>
+        <v>35.15854838</v>
       </c>
       <c r="F8">
-        <v>129.0839071</v>
+        <v>129.0506823</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -942,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -956,34 +1076,34 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>21050741016</v>
+        <v>21150631031</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E9">
-        <v>35.15299678</v>
+        <v>35.14140785</v>
       </c>
       <c r="F9">
-        <v>129.0217297</v>
+        <v>128.9834847</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -991,25 +1111,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>21150591008</v>
+        <v>50000002208</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>35.1550072</v>
+        <v>35.16760003</v>
       </c>
       <c r="F10">
-        <v>128.9907053</v>
+        <v>129.1404785</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1018,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1029,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>21150631036</v>
+        <v>21090531008</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>35.14667944</v>
+        <v>35.16309075</v>
       </c>
       <c r="F11">
-        <v>128.9947639</v>
+        <v>129.164525</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1067,25 +1187,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>21150621005</v>
+        <v>21150581008</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E12">
-        <v>35.14645099</v>
+        <v>35.13190118</v>
       </c>
       <c r="F12">
-        <v>128.9949091</v>
+        <v>128.9721839</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1097,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1105,37 +1225,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>21150591007</v>
+        <v>21150631027</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>35.15277034</v>
+        <v>35.14145846</v>
       </c>
       <c r="F13">
-        <v>128.9904155</v>
+        <v>128.983832</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1143,25 +1263,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>21050661017</v>
+        <v>21150561014</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E14">
-        <v>35.16866514</v>
+        <v>35.17498672</v>
       </c>
       <c r="F14">
-        <v>129.0395628</v>
+        <v>128.9886323</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1170,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1181,19 +1301,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>21050661018</v>
+        <v>21150601012</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E15">
-        <v>35.16871853</v>
+        <v>35.15582721</v>
       </c>
       <c r="F15">
-        <v>129.0393648</v>
+        <v>128.9947379</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1202,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1219,22 +1339,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>21070561028</v>
+        <v>21150591006</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E16">
-        <v>35.13590226</v>
+        <v>35.1548615</v>
       </c>
       <c r="F16">
-        <v>129.0836118</v>
+        <v>128.9909335</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1246,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1257,25 +1377,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>21090531006</v>
+        <v>21050771010</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E17">
-        <v>35.1622456</v>
+        <v>35.14776933</v>
       </c>
       <c r="F17">
-        <v>129.1632219</v>
+        <v>129.0610247</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1284,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1295,37 +1415,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>21150601011</v>
+        <v>50000003068</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E18">
-        <v>35.15549786</v>
+        <v>35.16581755</v>
       </c>
       <c r="F18">
-        <v>128.9955049</v>
+        <v>129.1687499</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1333,37 +1453,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>21150591013</v>
+        <v>50000003069</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>35.15500044</v>
+        <v>35.16551945</v>
       </c>
       <c r="F19">
-        <v>128.9917189</v>
+        <v>129.1685389</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1371,19 +1491,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>21150561013</v>
+        <v>21050741016</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E20">
-        <v>35.17915576</v>
+        <v>35.15299678</v>
       </c>
       <c r="F20">
-        <v>128.9886762</v>
+        <v>129.0217297</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1395,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1409,25 +1529,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>21150571035</v>
+        <v>21150621004</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E21">
-        <v>35.16041194</v>
+        <v>35.15020883</v>
       </c>
       <c r="F21">
-        <v>128.9862184</v>
+        <v>129.0025857</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1439,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1447,25 +1567,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>21150561015</v>
+        <v>21050511007</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E22">
-        <v>35.1810469</v>
+        <v>35.15942737</v>
       </c>
       <c r="F22">
-        <v>128.988722</v>
+        <v>129.0575851</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1474,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1485,25 +1605,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>21150561009</v>
+        <v>50000002620</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E23">
-        <v>35.18123059</v>
+        <v>35.16304339</v>
       </c>
       <c r="F23">
-        <v>128.9883521</v>
+        <v>129.063209</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1512,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1523,22 +1643,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>21150631021</v>
+        <v>21150591008</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E24">
-        <v>35.14020955</v>
+        <v>35.1550072</v>
       </c>
       <c r="F24">
-        <v>128.9896003</v>
+        <v>128.9907053</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1553,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1561,25 +1681,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>21150531009</v>
+        <v>21070511004</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E25">
-        <v>35.18679193</v>
+        <v>35.13463911</v>
       </c>
       <c r="F25">
-        <v>128.9898277</v>
+        <v>129.0917962</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1588,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1599,25 +1719,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>21070541001</v>
+        <v>21070561028</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>35.12681707</v>
+        <v>35.13590226</v>
       </c>
       <c r="F26">
-        <v>129.095324</v>
+        <v>129.0836118</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1629,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1637,25 +1757,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>21070621006</v>
+        <v>21150641002</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E27">
-        <v>35.11673026</v>
+        <v>35.12837244</v>
       </c>
       <c r="F27">
-        <v>129.0809051</v>
+        <v>128.9728608</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1664,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1675,25 +1795,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>21070621001</v>
+        <v>21070561004</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E28">
-        <v>35.11703389</v>
+        <v>35.13483642</v>
       </c>
       <c r="F28">
-        <v>129.0811713</v>
+        <v>129.0841109</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1705,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1713,25 +1833,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>21050701023</v>
+        <v>21070521002</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E29">
-        <v>35.16542193</v>
+        <v>35.13458211</v>
       </c>
       <c r="F29">
-        <v>129.0379075</v>
+        <v>129.0839929</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1740,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1751,25 +1871,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>50000002532</v>
+        <v>50000002207</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E30">
-        <v>35.16332566</v>
+        <v>35.16780212</v>
       </c>
       <c r="F30">
-        <v>129.158407</v>
+        <v>129.1400064</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1781,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1789,22 +1909,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>50000003064</v>
+        <v>21150621005</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E31">
-        <v>35.17278476</v>
+        <v>35.14645099</v>
       </c>
       <c r="F31">
-        <v>129.1669101</v>
+        <v>128.9949091</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1816,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1827,22 +1947,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>21150561008</v>
+        <v>21150631036</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E32">
-        <v>35.17835951</v>
+        <v>35.14667944</v>
       </c>
       <c r="F32">
-        <v>128.988322</v>
+        <v>128.9947639</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1857,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1865,19 +1985,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>21150641006</v>
+        <v>21150591007</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E33">
-        <v>35.12862952</v>
+        <v>35.15277034</v>
       </c>
       <c r="F33">
-        <v>128.9728668</v>
+        <v>128.9904155</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1889,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1903,22 +2023,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>21150641002</v>
+        <v>21050661017</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E34">
-        <v>35.12837244</v>
+        <v>35.16866514</v>
       </c>
       <c r="F34">
-        <v>128.9728608</v>
+        <v>129.0395628</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1930,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1941,22 +2061,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>21150531010</v>
+        <v>21050661018</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E35">
-        <v>35.18757207</v>
+        <v>35.16871853</v>
       </c>
       <c r="F35">
-        <v>128.9906135</v>
+        <v>129.0393648</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1968,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1979,25 +2099,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>21150571036</v>
+        <v>21050511006</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E36">
-        <v>35.16055082</v>
+        <v>35.15902619</v>
       </c>
       <c r="F36">
-        <v>128.9864878</v>
+        <v>129.0582699</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2006,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2017,25 +2137,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>21150561003</v>
+        <v>21150641006</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E37">
-        <v>35.18060909</v>
+        <v>35.12862952</v>
       </c>
       <c r="F37">
-        <v>128.9857998</v>
+        <v>128.9728668</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2047,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2055,25 +2175,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>21150631024</v>
+        <v>21050741013</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E38">
-        <v>35.14057573</v>
+        <v>35.15345414</v>
       </c>
       <c r="F38">
-        <v>128.9898325</v>
+        <v>129.0249506</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2082,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2093,22 +2213,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>21150531007</v>
+        <v>21090531006</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E39">
-        <v>35.18367014</v>
+        <v>35.1622456</v>
       </c>
       <c r="F39">
-        <v>128.9900952</v>
+        <v>129.1632219</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2120,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2131,37 +2251,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>50000002620</v>
+        <v>21150601011</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E40">
-        <v>35.16304339</v>
+        <v>35.15549786</v>
       </c>
       <c r="F40">
-        <v>129.063209</v>
+        <v>128.9955049</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2169,26 +2289,26 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>21050691008</v>
+        <v>50000000709</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <v>35.16485347</v>
+        <v>35.16440723</v>
       </c>
       <c r="F41">
-        <v>129.0347962</v>
+        <v>129.0632215</v>
       </c>
       <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
         <v>3</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
@@ -2199,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2207,37 +2327,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>21050761004</v>
+        <v>50000002532</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E42">
-        <v>35.15614576</v>
+        <v>35.16332566</v>
       </c>
       <c r="F42">
-        <v>129.0230068</v>
+        <v>129.158407</v>
       </c>
       <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
       <c r="L42">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2245,19 +2365,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>21070611008</v>
+        <v>21150591013</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E43">
-        <v>35.11796307</v>
+        <v>35.15500044</v>
       </c>
       <c r="F43">
-        <v>129.0957618</v>
+        <v>128.9917189</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2269,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2286,19 +2406,19 @@
         <v>41</v>
       </c>
       <c r="C44">
-        <v>21070631002</v>
+        <v>21150561013</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E44">
-        <v>35.12240261</v>
+        <v>35.17915576</v>
       </c>
       <c r="F44">
-        <v>129.0838307</v>
+        <v>128.9886762</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2310,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2321,22 +2441,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>21070541007</v>
+        <v>21150561009</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E45">
-        <v>35.12623259</v>
+        <v>35.18123059</v>
       </c>
       <c r="F45">
-        <v>129.0957381</v>
+        <v>128.9883521</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2348,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2359,22 +2479,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>21050791010</v>
+        <v>21150631021</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E46">
-        <v>35.15712499</v>
+        <v>35.14020955</v>
       </c>
       <c r="F46">
-        <v>129.0481977</v>
+        <v>128.9896003</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2386,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2397,22 +2517,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>21050771010</v>
+        <v>21150531009</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E47">
-        <v>35.14776933</v>
+        <v>35.18679193</v>
       </c>
       <c r="F47">
-        <v>129.0610247</v>
+        <v>128.9898277</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2424,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2435,22 +2555,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>21150591015</v>
+        <v>21150561015</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E48">
-        <v>35.15519429</v>
+        <v>35.1810469</v>
       </c>
       <c r="F48">
-        <v>128.9919245</v>
+        <v>128.988722</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2459,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2473,25 +2593,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49">
-        <v>21150541005</v>
+        <v>21150571035</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E49">
-        <v>35.18551602</v>
+        <v>35.16041194</v>
       </c>
       <c r="F49">
-        <v>128.9993502</v>
+        <v>128.9862184</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2503,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2511,25 +2631,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C50">
-        <v>50000003065</v>
+        <v>21050511013</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E50">
-        <v>35.17271102</v>
+        <v>35.15785624</v>
       </c>
       <c r="F50">
-        <v>129.1672539</v>
+        <v>129.0558565</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2538,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2549,25 +2669,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>50000002531</v>
+        <v>21050511015</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E51">
-        <v>35.16357836</v>
+        <v>35.15784336</v>
       </c>
       <c r="F51">
-        <v>129.1586386</v>
+        <v>129.0557853</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2576,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2587,25 +2707,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52">
-        <v>21090661013</v>
+        <v>21050701005</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E52">
-        <v>35.17726003</v>
+        <v>35.17363905</v>
       </c>
       <c r="F52">
-        <v>129.177039</v>
+        <v>129.030649</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2614,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2625,25 +2745,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>21090661010</v>
+        <v>50000002624</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E53">
-        <v>35.1775904</v>
+        <v>35.155167</v>
       </c>
       <c r="F53">
-        <v>129.1771017</v>
+        <v>129.0592519</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2652,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2663,25 +2783,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>21050771014</v>
+        <v>21050741006</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E54">
-        <v>35.14759415</v>
+        <v>35.15292861</v>
       </c>
       <c r="F54">
-        <v>129.0590126</v>
+        <v>129.0263115</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2693,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2704,22 +2824,22 @@
         <v>47</v>
       </c>
       <c r="C55">
-        <v>21050701022</v>
+        <v>21050701004</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E55">
-        <v>35.1652329</v>
+        <v>35.17345899</v>
       </c>
       <c r="F55">
-        <v>129.0385907</v>
+        <v>129.0307956</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2731,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2742,22 +2862,22 @@
         <v>48</v>
       </c>
       <c r="C56">
-        <v>21050641015</v>
+        <v>21150631026</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E56">
-        <v>35.15854838</v>
+        <v>35.1447578</v>
       </c>
       <c r="F56">
-        <v>129.0506823</v>
+        <v>128.991211</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2766,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2777,25 +2897,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>21150531016</v>
+        <v>21050771014</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E57">
-        <v>35.18735352</v>
+        <v>35.14759415</v>
       </c>
       <c r="F57">
-        <v>128.990975</v>
+        <v>129.0590126</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2804,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2815,22 +2935,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>21150641003</v>
+        <v>21070621006</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E58">
-        <v>35.12860891</v>
+        <v>35.11673026</v>
       </c>
       <c r="F58">
-        <v>128.9713419</v>
+        <v>129.0809051</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2842,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2853,22 +2973,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>21150641005</v>
+        <v>21070541001</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E59">
-        <v>35.12887805</v>
+        <v>35.12681707</v>
       </c>
       <c r="F59">
-        <v>128.9711766</v>
+        <v>129.095324</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2880,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2891,22 +3011,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>21150531005</v>
+        <v>21070621001</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E60">
-        <v>35.18393343</v>
+        <v>35.11703389</v>
       </c>
       <c r="F60">
-        <v>128.9898679</v>
+        <v>129.0811713</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2918,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2929,25 +3049,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>21150551002</v>
+        <v>21050701023</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E61">
-        <v>35.17103491</v>
+        <v>35.16542193</v>
       </c>
       <c r="F61">
-        <v>128.9830798</v>
+        <v>129.0379075</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2956,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2967,25 +3087,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>21150631022</v>
+        <v>21050791010</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E62">
-        <v>35.14470861</v>
+        <v>35.15712499</v>
       </c>
       <c r="F62">
-        <v>128.9879107</v>
+        <v>129.0481977</v>
       </c>
       <c r="G62">
         <v>3</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2994,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3005,22 +3125,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63">
-        <v>21050511001</v>
+        <v>50000003064</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E63">
-        <v>35.16457052</v>
+        <v>35.17278476</v>
       </c>
       <c r="F63">
-        <v>129.0623605</v>
+        <v>129.1669101</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3032,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3043,26 +3163,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>21070681010</v>
+        <v>50000002616</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E64">
-        <v>35.13885306</v>
+        <v>35.17153877</v>
       </c>
       <c r="F64">
-        <v>129.0712406</v>
+        <v>129.0699592</v>
       </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>3</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="I64">
         <v>0</v>
       </c>
@@ -3070,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3081,25 +3201,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65">
-        <v>21050601008</v>
+        <v>50000002725</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E65">
-        <v>35.15531042</v>
+        <v>35.1578888</v>
       </c>
       <c r="F65">
-        <v>129.068216</v>
+        <v>129.061751</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3111,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3119,25 +3239,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>50000000709</v>
+        <v>21050521005</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E66">
-        <v>35.16440723</v>
+        <v>35.15610907</v>
       </c>
       <c r="F66">
-        <v>129.0632215</v>
+        <v>129.0576696</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3149,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3157,22 +3277,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C67">
-        <v>21050761005</v>
+        <v>21150571036</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E67">
-        <v>35.15589958</v>
+        <v>35.16055082</v>
       </c>
       <c r="F67">
-        <v>129.0233092</v>
+        <v>128.9864878</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3184,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3195,22 +3315,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>21070661006</v>
+        <v>21150531010</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E68">
-        <v>35.14336039</v>
+        <v>35.18757207</v>
       </c>
       <c r="F68">
-        <v>129.0713107</v>
+        <v>128.9906135</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3222,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3233,25 +3353,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>21050551012</v>
+        <v>21050561011</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E69">
-        <v>35.18054726</v>
+        <v>35.17064857</v>
       </c>
       <c r="F69">
-        <v>129.0506445</v>
+        <v>129.0675273</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3263,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3271,25 +3391,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>21070631004</v>
+        <v>21050621003</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E70">
-        <v>35.12263161</v>
+        <v>35.14919404</v>
       </c>
       <c r="F70">
-        <v>129.0836524</v>
+        <v>129.063214</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3298,74 +3418,74 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>21150611002</v>
+        <v>21150531007</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E71">
-        <v>35.15072713</v>
+        <v>35.18367014</v>
       </c>
       <c r="F71">
-        <v>129.0088707</v>
+        <v>128.9900952</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C72">
-        <v>21050681001</v>
+        <v>21150561008</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E72">
-        <v>35.15898859</v>
+        <v>35.17835951</v>
       </c>
       <c r="F72">
-        <v>129.050072</v>
+        <v>128.988322</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3374,36 +3494,36 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C73">
-        <v>50000003067</v>
+        <v>21050741011</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E73">
-        <v>35.17115302</v>
+        <v>35.15209548</v>
       </c>
       <c r="F73">
-        <v>129.1664443</v>
+        <v>129.01785</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3412,36 +3532,36 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74">
-        <v>21090531016</v>
+        <v>21150621003</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E74">
-        <v>35.16163202</v>
+        <v>35.14940331</v>
       </c>
       <c r="F74">
-        <v>129.1646121</v>
+        <v>128.9997637</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3450,33 +3570,33 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C75">
-        <v>21150521001</v>
+        <v>21150631024</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E75">
-        <v>35.18175194</v>
+        <v>35.14057573</v>
       </c>
       <c r="F75">
-        <v>128.9857794</v>
+        <v>128.9898325</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3491,30 +3611,30 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>50000002220</v>
+        <v>21150561003</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E76">
-        <v>35.17129681</v>
+        <v>35.18060909</v>
       </c>
       <c r="F76">
-        <v>128.9831579</v>
+        <v>128.9857998</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3529,30 +3649,30 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>21150561012</v>
+        <v>21070611008</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E77">
-        <v>35.17480742</v>
+        <v>35.11796307</v>
       </c>
       <c r="F77">
-        <v>128.9841008</v>
+        <v>129.0957618</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3564,33 +3684,33 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C78">
-        <v>21150511001</v>
+        <v>21070631002</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E78">
-        <v>35.17751303</v>
+        <v>35.12240261</v>
       </c>
       <c r="F78">
-        <v>128.9764963</v>
+        <v>129.0838307</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3602,33 +3722,33 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C79">
-        <v>21150531001</v>
+        <v>21050761004</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E79">
-        <v>35.18633412</v>
+        <v>35.15614576</v>
       </c>
       <c r="F79">
-        <v>128.9894216</v>
+        <v>129.0230068</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3640,33 +3760,33 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C80">
-        <v>21070541004</v>
+        <v>21070541007</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E80">
-        <v>35.12880774</v>
+        <v>35.12623259</v>
       </c>
       <c r="F80">
-        <v>129.091714</v>
+        <v>129.0957381</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3681,30 +3801,30 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C81">
-        <v>21070661001</v>
+        <v>21050691008</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E81">
-        <v>35.14343523</v>
+        <v>35.16485347</v>
       </c>
       <c r="F81">
-        <v>129.0710324</v>
+        <v>129.0347962</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3716,30 +3836,30 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>21070541008</v>
+        <v>21150591015</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E82">
-        <v>35.12889317</v>
+        <v>35.15519429</v>
       </c>
       <c r="F82">
-        <v>129.0913692</v>
+        <v>128.9919245</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -3751,39 +3871,39 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>21050661006</v>
+        <v>21050511001</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E83">
-        <v>35.16994193</v>
+        <v>35.16457052</v>
       </c>
       <c r="F83">
-        <v>129.0384898</v>
+        <v>129.0623605</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3795,30 +3915,30 @@
         <v>5</v>
       </c>
       <c r="L83">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>21050641001</v>
+        <v>21090661013</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E84">
-        <v>35.16353346</v>
+        <v>35.17726003</v>
       </c>
       <c r="F84">
-        <v>129.0543725</v>
+        <v>129.177039</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3830,33 +3950,33 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>21050691010</v>
+        <v>21090661010</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E85">
-        <v>35.16504845</v>
+        <v>35.1775904</v>
       </c>
       <c r="F85">
-        <v>129.0342437</v>
+        <v>129.1771017</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3868,33 +3988,33 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C86">
-        <v>21070681004</v>
+        <v>50000002531</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E86">
-        <v>35.13708849</v>
+        <v>35.16357836</v>
       </c>
       <c r="F86">
-        <v>129.0714578</v>
+        <v>129.1586386</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3906,71 +4026,71 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C87">
-        <v>21070541003</v>
+        <v>21150541005</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E87">
-        <v>35.12703929</v>
+        <v>35.18551602</v>
       </c>
       <c r="F87">
-        <v>129.0900863</v>
+        <v>128.9993502</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C88">
-        <v>50000002616</v>
+        <v>50000003065</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E88">
-        <v>35.17153877</v>
+        <v>35.17271102</v>
       </c>
       <c r="F88">
-        <v>129.0699592</v>
+        <v>129.1672539</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3982,36 +4102,36 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>21070681006</v>
+        <v>21050701022</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E89">
-        <v>35.13898826</v>
+        <v>35.1652329</v>
       </c>
       <c r="F89">
-        <v>129.0709752</v>
+        <v>129.0385907</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4020,36 +4140,36 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L89">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C90">
-        <v>21050791011</v>
+        <v>21150571027</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E90">
-        <v>35.15666741</v>
+        <v>35.16090027</v>
       </c>
       <c r="F90">
-        <v>129.0483454</v>
+        <v>128.9840455</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4058,36 +4178,36 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C91">
-        <v>21050701028</v>
+        <v>21050521024</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E91">
-        <v>35.16671402</v>
+        <v>35.15737515</v>
       </c>
       <c r="F91">
-        <v>129.0387451</v>
+        <v>129.0567778</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4099,33 +4219,33 @@
         <v>5</v>
       </c>
       <c r="L91">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C92">
-        <v>50000002623</v>
+        <v>21050741017</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E92">
-        <v>35.15594596</v>
+        <v>35.15338749</v>
       </c>
       <c r="F92">
-        <v>129.0590191</v>
+        <v>129.0267504</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4137,71 +4257,71 @@
         <v>5</v>
       </c>
       <c r="L92">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C93">
-        <v>21070621005</v>
+        <v>21150631002</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E93">
-        <v>35.11848791</v>
+        <v>35.13855828</v>
       </c>
       <c r="F93">
-        <v>129.0802775</v>
+        <v>128.9785365</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C94">
-        <v>21050751002</v>
+        <v>21050711004</v>
       </c>
       <c r="D94" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E94">
-        <v>35.14440665</v>
+        <v>35.15623737</v>
       </c>
       <c r="F94">
-        <v>129.0162919</v>
+        <v>129.0435319</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4213,33 +4333,33 @@
         <v>5</v>
       </c>
       <c r="L94">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C95">
-        <v>21150541004</v>
+        <v>21150631003</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E95">
-        <v>35.18606015</v>
+        <v>35.13810135</v>
       </c>
       <c r="F95">
-        <v>128.9994031</v>
+        <v>128.9783142</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4251,33 +4371,33 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C96">
-        <v>50000003066</v>
+        <v>50000000073</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E96">
-        <v>35.17112393</v>
+        <v>35.15735577</v>
       </c>
       <c r="F96">
-        <v>129.1668112</v>
+        <v>129.0521472</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4286,150 +4406,150 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L96">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>21050711002</v>
+        <v>21050681001</v>
       </c>
       <c r="D97" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E97">
-        <v>35.15500218</v>
+        <v>35.15898859</v>
       </c>
       <c r="F97">
-        <v>129.0366574</v>
+        <v>129.050072</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>5</v>
       </c>
       <c r="L97">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C98">
-        <v>21150531003</v>
+        <v>21150621002</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E98">
-        <v>35.18584248</v>
+        <v>35.14914942</v>
       </c>
       <c r="F98">
-        <v>128.9917922</v>
+        <v>129.0000063</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C99">
-        <v>21150531002</v>
+        <v>50000002626</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E99">
-        <v>35.18483032</v>
+        <v>35.15321511</v>
       </c>
       <c r="F99">
-        <v>128.9933289</v>
+        <v>129.0590381</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L99">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C100">
-        <v>21150631028</v>
+        <v>21050541010</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E100">
-        <v>35.14298719</v>
+        <v>35.17161211</v>
       </c>
       <c r="F100">
-        <v>128.9864645</v>
+        <v>129.0498486</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4438,36 +4558,36 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C101">
-        <v>21150551010</v>
+        <v>50000000417</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E101">
-        <v>35.17159759</v>
+        <v>35.1518505</v>
       </c>
       <c r="F101">
-        <v>128.9829462</v>
+        <v>129.0173639</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4476,36 +4596,36 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L101">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C102">
-        <v>21150631023</v>
+        <v>21150561007</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E102">
-        <v>35.1448169</v>
+        <v>35.17574031</v>
       </c>
       <c r="F102">
-        <v>128.9884569</v>
+        <v>128.9882885</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4517,33 +4637,33 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>21150561005</v>
+        <v>21150641014</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E103">
-        <v>35.17476464</v>
+        <v>35.13069231</v>
       </c>
       <c r="F103">
-        <v>128.9843933</v>
+        <v>128.9714454</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4555,30 +4675,30 @@
         <v>1</v>
       </c>
       <c r="L103">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C104">
-        <v>21150581029</v>
+        <v>21150531005</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E104">
-        <v>35.15529065</v>
+        <v>35.18393343</v>
       </c>
       <c r="F104">
-        <v>128.9790647</v>
+        <v>128.9898679</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4593,30 +4713,30 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C105">
-        <v>21150601006</v>
+        <v>21150551002</v>
       </c>
       <c r="D105" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E105">
-        <v>35.15264441</v>
+        <v>35.17103491</v>
       </c>
       <c r="F105">
-        <v>129.0010717</v>
+        <v>128.9830798</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4631,30 +4751,30 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C106">
-        <v>21070661005</v>
+        <v>21150641003</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E106">
-        <v>35.14146286</v>
+        <v>35.12860891</v>
       </c>
       <c r="F106">
-        <v>129.0789559</v>
+        <v>128.9713419</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4663,36 +4783,36 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
       <c r="C107">
-        <v>21150581018</v>
+        <v>21150641005</v>
       </c>
       <c r="D107" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E107">
-        <v>35.15508376</v>
+        <v>35.12887805</v>
       </c>
       <c r="F107">
-        <v>128.9802819</v>
+        <v>128.9711766</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4707,36 +4827,36 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C108">
-        <v>21070621003</v>
+        <v>21070511005</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E108">
-        <v>35.11941543</v>
+        <v>35.13391368</v>
       </c>
       <c r="F108">
-        <v>129.0808915</v>
+        <v>129.0920731</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -4745,30 +4865,30 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C109">
-        <v>21150511002</v>
+        <v>21150531016</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E109">
-        <v>35.1766192</v>
+        <v>35.18735352</v>
       </c>
       <c r="F109">
-        <v>128.9761335</v>
+        <v>128.990975</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4783,30 +4903,30 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>81</v>
       </c>
       <c r="C110">
-        <v>21150641043</v>
+        <v>21150631022</v>
       </c>
       <c r="D110" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E110">
-        <v>35.12975323</v>
+        <v>35.14470861</v>
       </c>
       <c r="F110">
-        <v>128.9712248</v>
+        <v>128.9879107</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4821,30 +4941,30 @@
         <v>1</v>
       </c>
       <c r="L110">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>82</v>
       </c>
       <c r="C111">
-        <v>50000002695</v>
+        <v>21050601008</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E111">
-        <v>35.18496203</v>
+        <v>35.15531042</v>
       </c>
       <c r="F111">
-        <v>128.9912149</v>
+        <v>129.068216</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4853,36 +4973,36 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C112">
-        <v>21070511003</v>
+        <v>21050761005</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E112">
-        <v>35.13532545</v>
+        <v>35.15589958</v>
       </c>
       <c r="F112">
-        <v>129.0948684</v>
+        <v>129.0233092</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4894,33 +5014,33 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C113">
-        <v>21150541006</v>
+        <v>21070661006</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E113">
-        <v>35.18456041</v>
+        <v>35.14336039</v>
       </c>
       <c r="F113">
-        <v>128.9932817</v>
+        <v>129.0713107</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4929,36 +5049,36 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>84</v>
       </c>
       <c r="C114">
-        <v>21070551009</v>
+        <v>21070681010</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E114">
-        <v>35.13506424</v>
+        <v>35.13885306</v>
       </c>
       <c r="F114">
-        <v>129.0884758</v>
+        <v>129.0712406</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4973,30 +5093,30 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C115">
-        <v>21070681003</v>
+        <v>21050551012</v>
       </c>
       <c r="D115" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E115">
-        <v>35.13713748</v>
+        <v>35.18054726</v>
       </c>
       <c r="F115">
-        <v>129.0701294</v>
+        <v>129.0506445</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5008,33 +5128,33 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C116">
-        <v>21070611013</v>
+        <v>21070631004</v>
       </c>
       <c r="D116" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E116">
-        <v>35.11827928</v>
+        <v>35.12263161</v>
       </c>
       <c r="F116">
-        <v>129.0964663</v>
+        <v>129.0836524</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5049,82 +5169,2742 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C117">
-        <v>21150531008</v>
+        <v>21050791011</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E117">
-        <v>35.18577033</v>
+        <v>35.15666741</v>
       </c>
       <c r="F117">
-        <v>128.9915216</v>
+        <v>129.0483454</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L117">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118">
+        <v>50000002617</v>
+      </c>
+      <c r="D118" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118">
+        <v>35.17108961</v>
+      </c>
+      <c r="F118">
+        <v>129.0698764</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>5</v>
+      </c>
+      <c r="L118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119">
+        <v>21150631009</v>
+      </c>
+      <c r="D119" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119">
+        <v>35.1390613</v>
+      </c>
+      <c r="F119">
+        <v>128.9773046</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118">
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120">
+        <v>21050641010</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120">
+        <v>35.16695211</v>
+      </c>
+      <c r="F120">
+        <v>129.05149</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121">
+        <v>21150631012</v>
+      </c>
+      <c r="D121" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121">
+        <v>35.14018959</v>
+      </c>
+      <c r="F121">
+        <v>128.9815345</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122">
+        <v>21050521014</v>
+      </c>
+      <c r="D122" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122">
+        <v>35.15765496</v>
+      </c>
+      <c r="F122">
+        <v>129.0610211</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>5</v>
+      </c>
+      <c r="L122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123">
+        <v>21090531016</v>
+      </c>
+      <c r="D123" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123">
+        <v>35.16163202</v>
+      </c>
+      <c r="F123">
+        <v>129.1646121</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124">
+        <v>21150621001</v>
+      </c>
+      <c r="D124" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124">
+        <v>35.14989092</v>
+      </c>
+      <c r="F124">
+        <v>128.998765</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125">
+        <v>21050771009</v>
+      </c>
+      <c r="D125" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125">
+        <v>35.15014631</v>
+      </c>
+      <c r="F125">
+        <v>129.058308</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126">
+        <v>50000003067</v>
+      </c>
+      <c r="D126" t="s">
+        <v>129</v>
+      </c>
+      <c r="E126">
+        <v>35.17115302</v>
+      </c>
+      <c r="F126">
+        <v>129.1664443</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127">
+        <v>21150611002</v>
+      </c>
+      <c r="D127" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127">
+        <v>35.15072713</v>
+      </c>
+      <c r="F127">
+        <v>129.0088707</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128">
+        <v>21050521013</v>
+      </c>
+      <c r="D128" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128">
+        <v>35.15736876</v>
+      </c>
+      <c r="F128">
+        <v>129.0566245</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="L128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129">
+        <v>21070671007</v>
+      </c>
+      <c r="D129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <v>35.14548053</v>
+      </c>
+      <c r="F129">
+        <v>129.0670469</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130">
+        <v>21070671010</v>
+      </c>
+      <c r="D130" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130">
+        <v>35.14527605</v>
+      </c>
+      <c r="F130">
+        <v>129.0664696</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131">
+        <v>21150511001</v>
+      </c>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+      <c r="E131">
+        <v>35.17751303</v>
+      </c>
+      <c r="F131">
+        <v>128.9764963</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132">
+        <v>21150531001</v>
+      </c>
+      <c r="D132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132">
+        <v>35.18633412</v>
+      </c>
+      <c r="F132">
+        <v>128.9894216</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133">
+        <v>21150521001</v>
+      </c>
+      <c r="D133" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133">
+        <v>35.18175194</v>
+      </c>
+      <c r="F133">
+        <v>128.9857794</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134">
+        <v>21150561012</v>
+      </c>
+      <c r="D134" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134">
+        <v>35.17480742</v>
+      </c>
+      <c r="F134">
+        <v>128.9841008</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135">
+        <v>50000002220</v>
+      </c>
+      <c r="D135" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135">
+        <v>35.17129681</v>
+      </c>
+      <c r="F135">
+        <v>128.9831579</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136">
+        <v>21070681004</v>
+      </c>
+      <c r="D136" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136">
+        <v>35.13708849</v>
+      </c>
+      <c r="F136">
+        <v>129.0714578</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137">
+        <v>21050641001</v>
+      </c>
+      <c r="D137" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137">
+        <v>35.16353346</v>
+      </c>
+      <c r="F137">
+        <v>129.0543725</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138">
+        <v>21070541004</v>
+      </c>
+      <c r="D138" t="s">
+        <v>127</v>
+      </c>
+      <c r="E138">
+        <v>35.12880774</v>
+      </c>
+      <c r="F138">
+        <v>129.091714</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139">
+        <v>21070681006</v>
+      </c>
+      <c r="D139" t="s">
+        <v>127</v>
+      </c>
+      <c r="E139">
+        <v>35.13898826</v>
+      </c>
+      <c r="F139">
+        <v>129.0709752</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140">
+        <v>21070541008</v>
+      </c>
+      <c r="D140" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140">
+        <v>35.12889317</v>
+      </c>
+      <c r="F140">
+        <v>129.0913692</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141">
+        <v>21070661001</v>
+      </c>
+      <c r="D141" t="s">
+        <v>127</v>
+      </c>
+      <c r="E141">
+        <v>35.14343523</v>
+      </c>
+      <c r="F141">
+        <v>129.0710324</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142">
+        <v>21150631023</v>
+      </c>
+      <c r="D142" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142">
+        <v>35.1448169</v>
+      </c>
+      <c r="F142">
+        <v>128.9884569</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143">
+        <v>21070541003</v>
+      </c>
+      <c r="D143" t="s">
+        <v>127</v>
+      </c>
+      <c r="E143">
+        <v>35.12703929</v>
+      </c>
+      <c r="F143">
+        <v>129.0900863</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>5</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144">
+        <v>21050691010</v>
+      </c>
+      <c r="D144" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144">
+        <v>35.16504845</v>
+      </c>
+      <c r="F144">
+        <v>129.0342437</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>5</v>
+      </c>
+      <c r="L144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145">
+        <v>21050661006</v>
+      </c>
+      <c r="D145" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145">
+        <v>35.16994193</v>
+      </c>
+      <c r="F145">
+        <v>129.0384898</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146">
+        <v>21050641003</v>
+      </c>
+      <c r="D146" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146">
+        <v>35.16735253</v>
+      </c>
+      <c r="F146">
+        <v>129.0515079</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147">
+        <v>21050701028</v>
+      </c>
+      <c r="D147" t="s">
+        <v>128</v>
+      </c>
+      <c r="E147">
+        <v>35.16671402</v>
+      </c>
+      <c r="F147">
+        <v>129.0387451</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>71</v>
+      </c>
+      <c r="C148">
+        <v>21150541004</v>
+      </c>
+      <c r="D148" t="s">
+        <v>126</v>
+      </c>
+      <c r="E148">
+        <v>35.18606015</v>
+      </c>
+      <c r="F148">
+        <v>128.9994031</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149">
+        <v>21070621005</v>
+      </c>
+      <c r="D149" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149">
+        <v>35.11848791</v>
+      </c>
+      <c r="F149">
+        <v>129.0802775</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>105</v>
+      </c>
+      <c r="C150">
+        <v>50000002990</v>
+      </c>
+      <c r="D150" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150">
+        <v>35.14325962</v>
+      </c>
+      <c r="F150">
+        <v>129.059429</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>5</v>
+      </c>
+      <c r="L150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151">
+        <v>21150641001</v>
+      </c>
+      <c r="D151" t="s">
+        <v>126</v>
+      </c>
+      <c r="E151">
+        <v>35.12856641</v>
+      </c>
+      <c r="F151">
+        <v>128.9748023</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152">
+        <v>21050541008</v>
+      </c>
+      <c r="D152" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152">
+        <v>35.16956819</v>
+      </c>
+      <c r="F152">
+        <v>129.0501659</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>5</v>
+      </c>
+      <c r="L152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153">
+        <v>50000002988</v>
+      </c>
+      <c r="D153" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153">
+        <v>35.14977663</v>
+      </c>
+      <c r="F153">
+        <v>129.0593354</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154">
+        <v>21150601009</v>
+      </c>
+      <c r="D154" t="s">
+        <v>126</v>
+      </c>
+      <c r="E154">
+        <v>35.15042139</v>
+      </c>
+      <c r="F154">
+        <v>128.9990834</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155">
+        <v>21150631001</v>
+      </c>
+      <c r="D155" t="s">
+        <v>126</v>
+      </c>
+      <c r="E155">
+        <v>35.13992837</v>
+      </c>
+      <c r="F155">
+        <v>128.9816748</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156">
+        <v>21050561009</v>
+      </c>
+      <c r="D156" t="s">
+        <v>128</v>
+      </c>
+      <c r="E156">
+        <v>35.17144606</v>
+      </c>
+      <c r="F156">
+        <v>129.0671752</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+      <c r="L156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157">
+        <v>21150641007</v>
+      </c>
+      <c r="D157" t="s">
+        <v>126</v>
+      </c>
+      <c r="E157">
+        <v>35.1286787</v>
+      </c>
+      <c r="F157">
+        <v>128.9745738</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>108</v>
+      </c>
+      <c r="C158">
+        <v>21050601012</v>
+      </c>
+      <c r="D158" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158">
+        <v>35.15767124</v>
+      </c>
+      <c r="F158">
+        <v>129.0630806</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159">
+        <v>50000000820</v>
+      </c>
+      <c r="D159" t="s">
+        <v>128</v>
+      </c>
+      <c r="E159">
+        <v>35.15788602</v>
+      </c>
+      <c r="F159">
+        <v>129.0630348</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160">
+        <v>21070521003</v>
+      </c>
+      <c r="D160" t="s">
+        <v>127</v>
+      </c>
+      <c r="E160">
+        <v>35.1347768</v>
+      </c>
+      <c r="F160">
+        <v>129.0875829</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161">
+        <v>21070531024</v>
+      </c>
+      <c r="D161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E161">
+        <v>35.13751268</v>
+      </c>
+      <c r="F161">
+        <v>129.1006343</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162">
+        <v>21070611024</v>
+      </c>
+      <c r="D162" t="s">
+        <v>127</v>
+      </c>
+      <c r="E162">
+        <v>35.12478416</v>
+      </c>
+      <c r="F162">
+        <v>129.0961249</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163">
+        <v>21070611007</v>
+      </c>
+      <c r="D163" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163">
+        <v>35.12347233</v>
+      </c>
+      <c r="F163">
+        <v>129.0971914</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164">
+        <v>50000003066</v>
+      </c>
+      <c r="D164" t="s">
+        <v>129</v>
+      </c>
+      <c r="E164">
+        <v>35.17112393</v>
+      </c>
+      <c r="F164">
+        <v>129.1668112</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>112</v>
+      </c>
+      <c r="C165">
+        <v>21070611011</v>
+      </c>
+      <c r="D165" t="s">
+        <v>127</v>
+      </c>
+      <c r="E165">
+        <v>35.12334462</v>
+      </c>
+      <c r="F165">
+        <v>129.0970257</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166">
+        <v>21150531002</v>
+      </c>
+      <c r="D166" t="s">
+        <v>126</v>
+      </c>
+      <c r="E166">
+        <v>35.18483032</v>
+      </c>
+      <c r="F166">
+        <v>128.9933289</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>3</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167">
+        <v>21050711002</v>
+      </c>
+      <c r="D167" t="s">
+        <v>128</v>
+      </c>
+      <c r="E167">
+        <v>35.15500218</v>
+      </c>
+      <c r="F167">
+        <v>129.0366574</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168">
+        <v>21090661007</v>
+      </c>
+      <c r="D168" t="s">
+        <v>129</v>
+      </c>
+      <c r="E168">
+        <v>35.1748612</v>
+      </c>
+      <c r="F168">
+        <v>129.1808257</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169">
+        <v>21150531003</v>
+      </c>
+      <c r="D169" t="s">
+        <v>126</v>
+      </c>
+      <c r="E169">
+        <v>35.18584248</v>
+      </c>
+      <c r="F169">
+        <v>128.9917922</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170">
+        <v>21150511002</v>
+      </c>
+      <c r="D170" t="s">
+        <v>126</v>
+      </c>
+      <c r="E170">
+        <v>35.1766192</v>
+      </c>
+      <c r="F170">
+        <v>128.9761335</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171">
+        <v>21150581018</v>
+      </c>
+      <c r="D171" t="s">
+        <v>126</v>
+      </c>
+      <c r="E171">
+        <v>35.15508376</v>
+      </c>
+      <c r="F171">
+        <v>128.9802819</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>79</v>
+      </c>
+      <c r="C172">
+        <v>21150551010</v>
+      </c>
+      <c r="D172" t="s">
+        <v>126</v>
+      </c>
+      <c r="E172">
+        <v>35.17159759</v>
+      </c>
+      <c r="F172">
+        <v>128.9829462</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173">
+        <v>21150641043</v>
+      </c>
+      <c r="D173" t="s">
+        <v>126</v>
+      </c>
+      <c r="E173">
+        <v>35.12975323</v>
+      </c>
+      <c r="F173">
+        <v>128.9712248</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174">
+        <v>21150561005</v>
+      </c>
+      <c r="D174" t="s">
+        <v>126</v>
+      </c>
+      <c r="E174">
+        <v>35.17476464</v>
+      </c>
+      <c r="F174">
+        <v>128.9843933</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="1">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>119</v>
+      </c>
+      <c r="C175">
+        <v>21070661005</v>
+      </c>
+      <c r="D175" t="s">
+        <v>127</v>
+      </c>
+      <c r="E175">
+        <v>35.14146286</v>
+      </c>
+      <c r="F175">
+        <v>129.0789559</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>3</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="1">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176">
+        <v>21150601006</v>
+      </c>
+      <c r="D176" t="s">
+        <v>126</v>
+      </c>
+      <c r="E176">
+        <v>35.15264441</v>
+      </c>
+      <c r="F176">
+        <v>129.0010717</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="1">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177">
+        <v>21150581029</v>
+      </c>
+      <c r="D177" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177">
+        <v>35.15529065</v>
+      </c>
+      <c r="F177">
+        <v>128.9790647</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178">
+        <v>21150631028</v>
+      </c>
+      <c r="D178" t="s">
+        <v>126</v>
+      </c>
+      <c r="E178">
+        <v>35.14298719</v>
+      </c>
+      <c r="F178">
+        <v>128.9864645</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
+        <v>104</v>
+      </c>
+      <c r="C179">
+        <v>21070621003</v>
+      </c>
+      <c r="D179" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179">
+        <v>35.11941543</v>
+      </c>
+      <c r="F179">
+        <v>129.0808915</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180">
+        <v>21150541006</v>
+      </c>
+      <c r="D180" t="s">
+        <v>126</v>
+      </c>
+      <c r="E180">
+        <v>35.18456041</v>
+      </c>
+      <c r="F180">
+        <v>128.9932817</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="1">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181">
+        <v>21070551009</v>
+      </c>
+      <c r="D181" t="s">
+        <v>127</v>
+      </c>
+      <c r="E181">
+        <v>35.13506424</v>
+      </c>
+      <c r="F181">
+        <v>129.0884758</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="1">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
+        <v>122</v>
+      </c>
+      <c r="C182">
+        <v>50000002695</v>
+      </c>
+      <c r="D182" t="s">
+        <v>126</v>
+      </c>
+      <c r="E182">
+        <v>35.18496203</v>
+      </c>
+      <c r="F182">
+        <v>128.9912149</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="1">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183">
+        <v>21070611013</v>
+      </c>
+      <c r="D183" t="s">
+        <v>127</v>
+      </c>
+      <c r="E183">
+        <v>35.11827928</v>
+      </c>
+      <c r="F183">
+        <v>129.0964663</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="1">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184">
+        <v>21070681003</v>
+      </c>
+      <c r="D184" t="s">
+        <v>127</v>
+      </c>
+      <c r="E184">
+        <v>35.13713748</v>
+      </c>
+      <c r="F184">
+        <v>129.0701294</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="1">
+        <v>189</v>
+      </c>
+      <c r="B185" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185">
+        <v>21150571022</v>
+      </c>
+      <c r="D185" t="s">
+        <v>126</v>
+      </c>
+      <c r="E185">
+        <v>35.16609173</v>
+      </c>
+      <c r="F185">
+        <v>128.9889914</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="1">
+        <v>190</v>
+      </c>
+      <c r="B186" t="s">
+        <v>116</v>
+      </c>
+      <c r="C186">
+        <v>21150531008</v>
+      </c>
+      <c r="D186" t="s">
+        <v>126</v>
+      </c>
+      <c r="E186">
+        <v>35.18577033</v>
+      </c>
+      <c r="F186">
+        <v>128.9915216</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="1">
+        <v>191</v>
+      </c>
+      <c r="B187" t="s">
+        <v>124</v>
+      </c>
+      <c r="C187">
+        <v>21070511003</v>
+      </c>
+      <c r="D187" t="s">
+        <v>127</v>
+      </c>
+      <c r="E187">
+        <v>35.13532545</v>
+      </c>
+      <c r="F187">
+        <v>129.0948684</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="1">
+        <v>192</v>
+      </c>
+      <c r="B188" t="s">
+        <v>125</v>
+      </c>
+      <c r="C188">
         <v>21150561011</v>
       </c>
-      <c r="D118" t="s">
-        <v>86</v>
-      </c>
-      <c r="E118">
+      <c r="D188" t="s">
+        <v>126</v>
+      </c>
+      <c r="E188">
         <v>35.17347782</v>
       </c>
-      <c r="F118">
+      <c r="F188">
         <v>128.9862831</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118">
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
         <v>3</v>
       </c>
     </row>
